--- a/data/georgia_census/qvemo-qartli/gardabani/age_dependency.xlsx
+++ b/data/georgia_census/qvemo-qartli/gardabani/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{725DDEA0-31D5-43FF-BA1C-3AB299D62879}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58728F8F-0D9C-48B4-9776-DA7DA02C9587}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EA9A382-F13C-43AE-810F-44BB2489F597}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40DE8BBA-AE6D-4BCB-9BEB-07F6D351214C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{187A344E-9462-4A3F-9D4B-CACD69149F3C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FFBAE91-A20F-4FA7-931D-6664C53042BE}"/>
 </file>